--- a/compendium-example.xlsx
+++ b/compendium-example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\RPG\FoundryVTT\swade-es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\R\fvtt-exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E242375F-ED45-4835-AFC7-6F9A1D4B2FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB775E5-460A-43FB-8540-9F48ACE7B818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -2858,9 +2858,6 @@
     <t>Survival</t>
   </si>
   <si>
-    <t>Surpervivencia</t>
-  </si>
-  <si>
     <t>Taunt</t>
   </si>
   <si>
@@ -2886,6 +2883,9 @@
   </si>
   <si>
     <t>Savage Worlds Edicion Aventura</t>
+  </si>
+  <si>
+    <t>Supervivencia</t>
   </si>
 </sst>
 </file>
@@ -3221,7 +3221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA291797-4989-4A35-8A81-9A29B933987B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3258,7 +3258,7 @@
         <v>750</v>
       </c>
       <c r="C2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D2" t="s">
         <v>758</v>
@@ -3275,7 +3275,7 @@
         <v>755</v>
       </c>
       <c r="C3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D3" t="s">
         <v>758</v>
@@ -3292,7 +3292,7 @@
         <v>751</v>
       </c>
       <c r="C4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D4" t="s">
         <v>758</v>
@@ -3309,7 +3309,7 @@
         <v>752</v>
       </c>
       <c r="C5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D5" t="s">
         <v>758</v>
@@ -3326,7 +3326,7 @@
         <v>753</v>
       </c>
       <c r="C6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D6" t="s">
         <v>758</v>
@@ -3343,7 +3343,7 @@
         <v>754</v>
       </c>
       <c r="C7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D7" t="s">
         <v>758</v>
@@ -3360,7 +3360,7 @@
         <v>880</v>
       </c>
       <c r="C8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D8" t="s">
         <v>758</v>
@@ -3377,7 +3377,7 @@
         <v>883</v>
       </c>
       <c r="C9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D9" t="s">
         <v>758</v>
@@ -3395,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10418823-600D-4A75-A2AB-CD412119598C}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3812,7 +3812,7 @@
         <v>939</v>
       </c>
       <c r="B30" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="C30">
         <v>53</v>
@@ -3823,10 +3823,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>940</v>
+      </c>
+      <c r="B31" t="s">
         <v>941</v>
-      </c>
-      <c r="B31" t="s">
-        <v>942</v>
       </c>
       <c r="C31">
         <v>51</v>
@@ -3837,10 +3837,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>942</v>
+      </c>
+      <c r="B32" t="s">
         <v>943</v>
-      </c>
-      <c r="B32" t="s">
-        <v>944</v>
       </c>
       <c r="C32">
         <v>47</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>944</v>
+      </c>
+      <c r="B33" t="s">
         <v>945</v>
-      </c>
-      <c r="B33" t="s">
-        <v>946</v>
       </c>
       <c r="C33">
         <v>123</v>
@@ -3865,10 +3865,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>946</v>
+      </c>
+      <c r="B34" t="s">
         <v>947</v>
-      </c>
-      <c r="B34" t="s">
-        <v>948</v>
       </c>
       <c r="C34">
         <v>42</v>
